--- a/OHRM-POM/target/classes/com/ExcelFiles/AddEmployee.xlsx
+++ b/OHRM-POM/target/classes/com/ExcelFiles/AddEmployee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="98">
   <si>
     <t>Expected_LogInPageText</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>0106</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
   </si>
 </sst>
 </file>
